--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-DE767565.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-DE767565.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E82D930-CDDC-4AA0-A7F6-1725EB76C60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB39597D-F89B-4526-A5FE-704A4987DC6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{11416B90-B51E-49D1-9C1A-793A24A4E8D5}"/>
   </bookViews>
@@ -25,33 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
   <si>
     <t>Various paper supplies</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>RON</t>
   </si>
   <si>
-    <t>Waste management services</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Concierge Services</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>IT Support</t>
   </si>
   <si>
-    <t>Professional Services</t>
+    <t>Beverages and Catering</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD95014A-DC10-4C0D-AB6C-73DEBAC39C45}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,163 +415,462 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>952159</v>
+        <v>530834</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>59956</v>
+      <c r="C1" s="1">
+        <v>42740</v>
       </c>
       <c r="D1">
-        <v>11991.2</v>
+        <v>196975</v>
       </c>
       <c r="E1">
-        <v>71947.199999999997</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42744</v>
+        <v>39395</v>
+      </c>
+      <c r="F1">
+        <v>236370</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>388050</v>
+        <v>986513</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>222270</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42759</v>
       </c>
       <c r="D2">
-        <v>44454</v>
+        <v>117526</v>
       </c>
       <c r="E2">
-        <v>266724</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42790</v>
+        <v>23505.200000000001</v>
+      </c>
+      <c r="F2">
+        <v>141031</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>701214</v>
+        <v>287262</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>182085</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42787</v>
       </c>
       <c r="D3">
-        <v>36417</v>
+        <v>76614</v>
       </c>
       <c r="E3">
-        <v>218502</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42835</v>
+        <v>15322.8</v>
+      </c>
+      <c r="F3">
+        <v>91936.8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>867496</v>
+        <v>406801</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>112640</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42831</v>
       </c>
       <c r="D4">
-        <v>22528</v>
+        <v>141758</v>
       </c>
       <c r="E4">
-        <v>135168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42870</v>
+        <v>28351.599999999999</v>
+      </c>
+      <c r="F4">
+        <v>170110</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>930030</v>
+        <v>339458</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>153138</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42835</v>
       </c>
       <c r="D5">
-        <v>30627.599999999999</v>
+        <v>175071</v>
       </c>
       <c r="E5">
-        <v>183766</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42925</v>
+        <v>35014.199999999997</v>
+      </c>
+      <c r="F5">
+        <v>210085</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>217913</v>
+        <v>802458</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>189946</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42900</v>
       </c>
       <c r="D6">
-        <v>37989.199999999997</v>
+        <v>39534</v>
       </c>
       <c r="E6">
-        <v>227935</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>42948</v>
+        <v>7906.8</v>
+      </c>
+      <c r="F6">
+        <v>47440.800000000003</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>307274</v>
+        <v>615189</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42923</v>
+      </c>
+      <c r="D7">
+        <v>50131</v>
+      </c>
+      <c r="E7">
+        <v>10026.200000000001</v>
+      </c>
+      <c r="F7">
+        <v>60157.2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>542265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42927</v>
+      </c>
+      <c r="D8">
+        <v>227379</v>
+      </c>
+      <c r="E8">
+        <v>45475.8</v>
+      </c>
+      <c r="F8">
+        <v>272855</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>239324</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>188019</v>
-      </c>
-      <c r="D7">
-        <v>37603.800000000003</v>
-      </c>
-      <c r="E7">
-        <v>225623</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C9" s="1">
+        <v>42969</v>
+      </c>
+      <c r="D9">
+        <v>110044</v>
+      </c>
+      <c r="E9">
+        <v>22008.799999999999</v>
+      </c>
+      <c r="F9">
+        <v>132053</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>751948</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43035</v>
+      </c>
+      <c r="D10">
+        <v>142401</v>
+      </c>
+      <c r="E10">
+        <v>28480.2</v>
+      </c>
+      <c r="F10">
+        <v>170881</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>945439</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43044</v>
+      </c>
+      <c r="D11">
+        <v>222732</v>
+      </c>
+      <c r="E11">
+        <v>44546.400000000001</v>
+      </c>
+      <c r="F11">
+        <v>267278</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>144347</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
-        <v>43050</v>
+      <c r="C12" s="1">
+        <v>43067</v>
+      </c>
+      <c r="D12">
+        <v>298552</v>
+      </c>
+      <c r="E12">
+        <v>59710.400000000001</v>
+      </c>
+      <c r="F12">
+        <v>358262</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>242743</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>56619</v>
+      </c>
+      <c r="D13">
+        <v>11323.8</v>
+      </c>
+      <c r="E13">
+        <v>67942.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>563577</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>284172</v>
+      </c>
+      <c r="D14">
+        <v>56834.400000000001</v>
+      </c>
+      <c r="E14">
+        <v>341006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>559517</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>194465</v>
+      </c>
+      <c r="D15">
+        <v>38893</v>
+      </c>
+      <c r="E15">
+        <v>233358</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>382759</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>114336</v>
+      </c>
+      <c r="D16">
+        <v>22867.200000000001</v>
+      </c>
+      <c r="E16">
+        <v>137203</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>488390</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>296299</v>
+      </c>
+      <c r="D17">
+        <v>59259.8</v>
+      </c>
+      <c r="E17">
+        <v>355559</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>219644</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>44087</v>
+      </c>
+      <c r="D18">
+        <v>8817.4</v>
+      </c>
+      <c r="E18">
+        <v>52904.4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>819439</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>214321</v>
+      </c>
+      <c r="D19">
+        <v>42864.2</v>
+      </c>
+      <c r="E19">
+        <v>257185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>934599</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>56132</v>
+      </c>
+      <c r="D20">
+        <v>11226.4</v>
+      </c>
+      <c r="E20">
+        <v>67358.399999999994</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43080</v>
       </c>
     </row>
   </sheetData>
